--- a/StructureDefinition-onc-seizure-record.xlsx
+++ b/StructureDefinition-onc-seizure-record.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-01T16:16:25+00:00</t>
+    <t>2026-01-02T16:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-seizure-record.xlsx
+++ b/StructureDefinition-onc-seizure-record.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T16:06:53+00:00</t>
+    <t>2026-01-02T16:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/StructureDefinition/onc-nursing-assessment</t>
+    <t>https://opennursingcoreig.com/StructureDefinition/onc-nursing-assessment</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-onc-seizure-record.xlsx
+++ b/StructureDefinition-onc-seizure-record.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:43:46+00:00</t>
+    <t>2026-01-02T23:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-seizure-record.xlsx
+++ b/StructureDefinition-onc-seizure-record.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:54:54+00:00</t>
+    <t>2026-01-03T00:14:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-seizure-record.xlsx
+++ b/StructureDefinition-onc-seizure-record.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:14:22+00:00</t>
+    <t>2026-01-03T00:34:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-seizure-record.xlsx
+++ b/StructureDefinition-onc-seizure-record.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:34:03+00:00</t>
+    <t>2026-01-03T01:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-seizure-record.xlsx
+++ b/StructureDefinition-onc-seizure-record.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T01:26:42+00:00</t>
+    <t>2026-01-03T01:44:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
